--- a/Тестовые сценарии Литера-7.xlsx
+++ b/Тестовые сценарии Литера-7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.larionov\Desktop\Документы\Тестовая документация\Литера 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5FD9F7-5F4F-4569-A1F6-DD510CFC4329}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8726AF27-7EA4-42AE-8BF3-02239748B4EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9990" xr2:uid="{13E3AFFA-99BC-4A72-A9C1-8EB9A3181F0F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5130" windowHeight="5670" xr2:uid="{13E3AFFA-99BC-4A72-A9C1-8EB9A3181F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>ID Сценария</t>
   </si>
@@ -40,13 +40,891 @@
   </si>
   <si>
     <t>№</t>
+  </si>
+  <si>
+    <t>Запуск программы</t>
+  </si>
+  <si>
+    <t>Запуск «Конфигуратора правил» поиска</t>
+  </si>
+  <si>
+    <t>Панель инструментов в главной форме</t>
+  </si>
+  <si>
+    <t>1) Переход к редактированию правил кнопкой «Редактировать»
+2) Переход к просмотру правил кнопкой «Просмотр»
+3) Переход к тестированию набора правил кнопкой «Тест»
+4) Появление модального окна «Ошибка данных» после нажатия кнопки «Редактировать»
+5) Появление модального окна «Ошибка данных» после нажатия кнопки «Просмотр»
+6) Появление модального окна «Ошибка данных» после нажатия кнопки «Тест»
+7) Выбор набора правил кнопкой «Выбрать папку»
+8) Закрытие конфигуратора кнопкой «Закрыть»
+9) Вызов справки кнопкой «Справка»
+10) Закрытие справки кнопкой «Справка»</t>
+  </si>
+  <si>
+    <t>1) Наличие правил поиска в главной области конфигуратора
+2) Переход к редактированию правил двойным нажатием по набору правил</t>
+  </si>
+  <si>
+    <t>Элементы области "Общие"</t>
+  </si>
+  <si>
+    <t>1) Заполнение поля «Идентификатор файла правил» цифрами
+2) Заполнение поля «Идентификатор файла правил» буквенными символами
+3) Заполнение поля «Идентификатор файла правил» спецсимволами
+4) Заполнение поля «Идентификатор файла правил» с пробелами в идентификаторе
+5) Российский формат в поле «Дата начала действия»
+6) Российский формат в поле «Дата начала действия» без точек
+7) Российский формат в поле «Дата окончания действия» 
+8) Российский формат в поле «Дата окончания действия» без точек
+9) Заполнение поля «Максимальная длина выдачи» цифрами
+10) Заполнение поля «Максимальная длина выдачи» буквенными символами
+11) Заполнение поля «Максимальная длина выдачи» спецсимволами
+12) Заполнение поля «Комментарий» буквенными символами
+13) Максимальная заполняемость поля «Комментарий»</t>
+  </si>
+  <si>
+    <t>Элементы области "Веса для сортировки результатов поиска"</t>
+  </si>
+  <si>
+    <t>1) Переключение «Способов расчета веса» в комбинированном списке
+2) Заполнение поля «ФИО Кириллица» цифрами
+3) Заполнение поля «ФИО Кириллица» буквенными символами
+4) Заполнение поля «ФИО Кириллица» спецсимволами
+5) Заполнение поля «ФИО Латиница» цифрами
+6) Заполнение поля «ФИО Латиница» буквенными символами
+7) Заполнение поля «ФИО Латиница» спецсимволами
+8) Заполнение поля «Страна» цифрами
+9) Заполнение поля «Страна» буквенными символами
+10) Заполнение поля «Страна» спецсимволами
+11) Заполнение поля «Дата рождения» цифрами
+12) Заполнение поля «Дата рождения» буквенными символами
+13) Заполнение поля «Дата рождения» спецсимволами
+14) Заполнение поля «Пол» цифрами
+15) Заполнение поля «Пол» буквенными символами
+16) Заполнение поля «Пол» спецсимволами</t>
+  </si>
+  <si>
+    <t>Элементы области "Правила формирования именных компонент"</t>
+  </si>
+  <si>
+    <t>1) Добавление символа на замену
+2) Замена символов ФИГ в поле «Пример»
+3) Удаление символов на замену
+4) Удаление повторяющихся символов
+5) Появление повторяющихся символов
+6) Обрезка компонентов большей длины чем указано 
+7) Отмена обрезания компонент
+8) Заполнение поля «Обрезать компоненты до длины» отрицательным значением
+9) Игнорирование компонент длиной в 1 символ
+10) Игнорирование компонент длиной в 2 символа</t>
+  </si>
+  <si>
+    <t>Элементы на вкладке "Литеры"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Окно «Добавить литеру»
+2) Добавление литеры
+3) Редактирование литеры 
+4) Удаление литеры
+5) Добавление пустой литеры
+6) В поле «Имя литеры» написать цифры
+7) В поле «Вес литеры» написать буквенные символы
+8) Добавление существующей литеры
+9) Перевод имени литеры с нижнего регистра в верхний регистр
+10) Окно «Добавить группу литер»
+11) Добавление группы литер 
+12) Редактирование группы литер
+13) Удаление группы литер
+14) Добавление группы литер без содержания в ней литер
+15) Добавление пустой группы литер
+16) Заполнение поля «Название группы» цифрами 
+17) Заполнение поля «Название группы» спецсимволами </t>
+  </si>
+  <si>
+    <t>Элементы на вкладке "Страны"</t>
+  </si>
+  <si>
+    <t>1) Окно «Добавить страну»
+2) Добавление страны
+3) Редактирование страны 
+4) Удаление страны
+5) Добавление, повторяющейся страны
+6) Создание страны не заполняя окно «Добавить страну» 
+7) Заполнение поля «Код ИКАО» кириллицей 
+8) Заполнение поля «Код ИКАО» цифрами
+9) Заполнение поля «Код ИКАО» спецсимволами
+10) Заполнение поля «Код ИКАО» в нижнем регистре
+11) Окно «Добавить группу стран»
+12) Добавление группы стран
+13) Редактирование группы стран
+14) Редактирование после двойного нажатия по группе стран
+15) Удаление группы стран
+16) Добавление всех стран из списка в группу
+17) Добавление выделенной страны в «Страны в группе»
+18) Удаление стран в «Страны в группе»
+19) Добавление стран обратным выделением  
+20) Добавление пустой группы стран
+21) Добавление группы стран с заполненным полем «Название группы»
+22) Заполнение поля «Название группы» спецсимволами</t>
+  </si>
+  <si>
+    <t>Элементы на вкладке "Правила"</t>
+  </si>
+  <si>
+    <t>1) Форма «Добавить правило»
+2) Добавление правила
+3) Редактирование правила
+4) Редактирование правила после двойного нажатия по правилу
+5) Удаление правила</t>
+  </si>
+  <si>
+    <t>Элементы области "Основное"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Заполнение буквенными символами поля «Название правила»
+2) Заполнение цифрами поля «Название правила»
+3) Заполнение спецсимволами поля «Название правила»
+4) Пустое поле «Название правила»
+5) Заполнение поля «Минимальный вес записи» цифрами
+6) Заполнение поля «Минимальный вес записи» отрицательным значением
+7) Заполнение поля «Минимальный вес записи» большим значением 
+8) Заполнение поля «Минимальный вес записи» буквенными символами
+9) Заполнение поля «Минимальный вес записи» спецсимволами
+10) Пустое поле «Минимальный вес записи» </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Заполнение цифрами поля «Кириллица» 
+2) Заполнение буквенными символами поля «Кириллица» 
+3) Заполнение спецсимволами поля «Кириллица» 
+4) Отрицательное значение в поле «Кириллица» 
+5) Значение, превышающее предел заполняемости в поле «Кириллица» 
+6) Пустое поле «Кириллица» 
+7) Заполнение цифрами поля «Латиница» 
+8) Заполнение буквенными символами поля «Латиница» 
+9) Заполнение спецсимволами поля «Латиница» 
+10) Отрицательное значение в поле «Латиница» 
+11) Значение, превышающее предел заполняемости в поле «Латиница» 
+12) Пустое поле «Латиница» 
+</t>
+  </si>
+  <si>
+    <t>Поле ввода "Максимальная длина компоненты, в которой не должно быть ошибок"</t>
+  </si>
+  <si>
+    <t>Поле ввода "Максимальная длина компоненты, в которой допустима 1 ошибка"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Заполнение цифрами Поле «Кириллица» у пункта с одной ошибкой
+2) Заполнение буквенными символами Поле «Кириллица» у пункта с одной ошибкой
+3) Заполнение спецсимволами Поле «Кириллица» у пункта с одной ошибкой
+4) Отрицательное значение в поле «Кириллица» у пункта с одной ошибкой
+5) Значение, превышающее предел заполняемости в поле «Кириллица» у пункта с одной ошибкой
+6) Пустое поле «Кириллица» у пункта с одной ошибкой
+7) Заполнение цифрами Поле «Латиница» у пункта с одной ошибкой
+8) Заполнение буквенными символами Поле «Латиница» у пункта с одной ошибкой
+9) Заполнение спецсимволами поле «Латиница» у пункта с одной ошибкой
+10) Отрицательное значение в поле «Латиница» у пункта с одной ошибкой
+11) Значение, превышающее предел заполняемости в поле «Латиница» у пункта с одной ошибкой
+12) Пустое поле «Латиница» у пункта с одной ошибкой
+</t>
+  </si>
+  <si>
+    <t>Поля ввода "Минимальное количество совпавших компонент (половина с округлением в большую сторону, если &gt;= 5"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Заполнение цифрами поле «из 3» 
+2) Заполнение буквенными символами поле «из 3» 
+3) Заполнение спецсимволами поле «из 3» 
+4) Отрицательное значение в поле «из 3» у пункта с одной ошибкой
+5) Значение, превышающее предел заполняемости в поле «из 3» у пункта с одной ошибкой
+6) Пустое поле «из 3» у пункта с одной ошибкой
+7) Заполнение цифрами поля «из 4» у пункта с одной ошибкой
+8) Заполнение буквенными символами поля «из 4» у пункта с одной ошибкой
+9) Заполнение спецсимволами поля «из 4» у пункта с одной ошибкой
+10) Отрицательное значение в поле «из 4» у пункта с одной ошибкой
+11) Значение, превышающее предел заполняемости в поле «из 4» у пункта с одной ошибкой
+12) Пустое поле «из 4» у пункта с одной ошибкой
+</t>
+  </si>
+  <si>
+    <t>Поле ввода «Количество символов ФИО группы, в которых допускается одна ошибка»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Заполнение цифрами поля «Количество символов ФИО группы, в которых допускается одна ошибка»
+2) Заполнение буквенными символами поля «Количество символов ФИО группы, в которых допускается одна ошибка»
+3) Заполнение спецсимволами поля «Количество символов ФИО группы, в которых допускается одна ошибка»
+4) Отрицательное значение в поле «Количество символов ФИО группы, в которых допускается одна ошибка»
+5) Значение, превышающее предел заполняемости в поле «Количество символов ФИО группы, в которых допускается одна ошибка»
+6) Пустое поле «Количество символов ФИО группы, в которых допускается одна ошибка»
+</t>
+  </si>
+  <si>
+    <t>Главная область "Набор правил"</t>
+  </si>
+  <si>
+    <t>Поле ввода «Интервал дат рождения, лет»</t>
+  </si>
+  <si>
+    <t>Элементы "Добавления группы правил"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Окно «Добавить группу правил»
+2) Добавление группы правил
+3) Редактирование группы правил
+4) Редактирование после двойного нажатия по группе правил
+5) Удаление группы правил
+6) Добавление пустой группы стран
+7) Добавление группы стран с заполненным полем «Название группы»
+8) Заполнение поля «Название группы» спецсимволами
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Неактивное поле «Интервал дат рождения, лет»
+2) Активное поле «Интервал дат рождения, лет»
+3) Заполнение буквенными символами поля «Интервал дат рождения, лет»
+4) Заполнение спецсимволами поля «Интервал дат рождения, лет»
+5) Отрицательное значение в поле «Интервал дат рождения, лет»
+6) Значение, превышающее предел заполняемости в поле «Интервал дат рождения, лет»
+7) Пустое поле «Интервал дат рождения, лет»
+</t>
+  </si>
+  <si>
+    <t>Поиск по контрольным спискам</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Поиск по КС пассажира с литерой «П» для страны Эстония 
+2) Поиск по КС пассажира с литерой «Д» для страны Туркмения 
+3) Поиск по КС пассажира с литерой «Д» для страны Туркмения 
+4) Поиск по КС пассажира с литерой «К» для страны Узбекистан
+5) Поиск по КС пассажира с литерой «Р» для страны Армения
+6) Поиск по КС пассажира с литерой «З» для страны Грузия
+7) Поиск по КС пассажира с литерой «Н» для страны Таджикистан
+8) Поиск по КС пассажира с литерой «Т» для страны Азербайджан
+9) Поиск по КС пассажира с литерой «Ф» для страны Казахстан
+10) Поиск по КС пассажира с литерой «С» для страны Китай
+11) Поиск по КС пассажира с литерой «В» для страны Украина
+12) Поиск по КС пассажира с литерой «В» для страны РФ
+13) Поиск по КС пассажира с литерой «С» для страны РФ
+14) Поиск по КС пассажира с литерой «К» для страны РФ
+</t>
+  </si>
+  <si>
+    <t>15) Поиск по КС пассажира с литерой «Р» для страны РФ
+16) Поиск по КС пассажира с литерой «З» для страны РФ
+17) Поиск по КС пассажира с литерой «Т» для страны РФ
+18) Поиск по КС пассажира с литерой «Ф» для страны РФ
+19) Поиск по КС пассажира с литерой «Н» для страны РФ
+20) Поиск по КС пассажира с литерой «С» для страны Польша
+21) Поиск по КС пассажира с литерой «В» для страны США
+22) Поиск по КС пассажира с литерой «Ф» для страны Литва
+23) Поиск по КС пассажира с литерой «Т» для страны Финляндия
+24) Поиск по КС пассажира с литерой «К» для страны Германия
+25) Поиск по КС пассажира с литерой «Р» для страны Перу
+26) Поиск по КС пассажира с литерой «З» для страны Бразилия
+27) Поиск по КС пассажира с литерой «Ф» для страны Тунис
+28) Поиск по КС пассажира с литерой «С» для страны Египет
+29) Поиск по КС пассажира с литерой «В» для страны Австралия</t>
+  </si>
+  <si>
+    <t>Поиск по контрольным спискам с ошибками в Фамильно-именной группе</t>
+  </si>
+  <si>
+    <t>LIT-ER S1.0</t>
+  </si>
+  <si>
+    <t>LIT-ER 001</t>
+  </si>
+  <si>
+    <t>LIT-ER S1.1</t>
+  </si>
+  <si>
+    <t>1) LIT-ER 002
+2) LIT-ER 003
+3) LIT-ER 004
+4) LIT-ER 005
+5) LIT-ER 006
+6) LIT-ER 007
+7) LIT-ER 008
+8) LIT-ER 009
+9) LIT-ER 010
+10) LIT-ER 011</t>
+  </si>
+  <si>
+    <t>LIT-ER S1.2</t>
+  </si>
+  <si>
+    <t>1) LIT-ER 012
+2) LIT-ER 013</t>
+  </si>
+  <si>
+    <t>LIT-ER S1.3</t>
+  </si>
+  <si>
+    <t>1) LIT-ER 014
+2) LIT-ER 015
+3) LIT-ER 016
+4) LIT-ER 017
+5) LIT-ER 018
+6) LIT-ER 019
+7) LIT-ER 020
+8) LIT-ER 021
+9) LIT-ER 022
+10) LIT-ER 023
+11) LIT-ER 024
+12) LIT-ER 025
+13) LIT-ER 026</t>
+  </si>
+  <si>
+    <t>LIT-ER S1.4</t>
+  </si>
+  <si>
+    <t>1) LIT-ER 027
+2) LIT-ER 028
+3) LIT-ER 029
+4) LIT-ER 030
+5) LIT-ER 031
+6) LIT-ER 032
+7) LIT-ER 033
+8) LIT-ER 034
+9) LIT-ER 035
+10) LIT-ER 036
+11) LIT-ER 037
+12) LIT-ER 038
+13) LIT-ER 039
+14) LIT-ER 040
+15) LIT-ER 041
+16) LIT-ER 042</t>
+  </si>
+  <si>
+    <t>LIT-ER S1.5</t>
+  </si>
+  <si>
+    <t>1) LIT-ER 043
+2) LIT-ER 044
+3) LIT-ER 045
+4) LIT-ER 046
+5) LIT-ER 047
+6) LIT-ER 048
+7) LIT-ER 049
+8) LIT-ER 050
+9) LIT-ER 051
+10) LIT-ER 052</t>
+  </si>
+  <si>
+    <t>LIT-ER S1.6</t>
+  </si>
+  <si>
+    <t>1) LIT-ER 053
+2) LIT-ER 054
+3) LIT-ER 055
+4) LIT-ER 056
+5) LIT-ER 057
+6) LIT-ER 058
+7) LIT-ER 059
+8) LIT-ER 060
+9) LIT-ER 061
+10) LIT-ER 062
+11) LIT-ER 063
+12) LIT-ER 064
+13) LIT-ER 065
+14) LIT-ER 066
+15) LIT-ER 067
+16) LIT-ER 068
+17) LIT-ER 069</t>
+  </si>
+  <si>
+    <t>LIT-ER S1.7</t>
+  </si>
+  <si>
+    <t>1) LIT-ER 070
+2) LIT-ER 071
+3) LIT-ER 072
+4) LIT-ER 073
+5) LIT-ER 074
+6) LIT-ER 075
+7) LIT-ER 076
+8) LIT-ER 077
+9) LIT-ER 078
+10) LIT-ER 079
+11) LIT-ER 080
+12) LIT-ER 081
+13) LIT-ER 082
+14) LIT-ER 083
+15) LIT-ER 084
+16) LIT-ER 085
+17) LIT-ER 086
+18) LIT-ER 087
+19) LIT-ER 088
+20) LIT-ER 089
+21) LIT-ER 090
+22) LIT-ER 091</t>
+  </si>
+  <si>
+    <t>LIT-ER S1.8</t>
+  </si>
+  <si>
+    <t>1) LIT-ER 092
+2) LIT-ER 093
+3) LIT-ER 094
+4) LIT-ER 095
+5) LIT-ER 096</t>
+  </si>
+  <si>
+    <t>LIT-ER S1.9</t>
+  </si>
+  <si>
+    <t>1) LIT-ER 097
+2) LIT-ER 098
+3) LIT-ER 099
+4) LIT-ER 100
+5) LIT-ER 101
+6) LIT-ER 102
+7) LIT-ER 103
+8) LIT-ER 104
+9) LIT-ER 105
+10) LIT-ER 106</t>
+  </si>
+  <si>
+    <t>LIT-ER S1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) LIT-ER 107
+2) LIT-ER 108
+3) LIT-ER 109
+4) LIT-ER 110
+5) LIT-ER 111
+6) LIT-ER 112
+7) LIT-ER 113
+8) LIT-ER 114
+9) LIT-ER 115
+10) LIT-ER 116
+11) LIT-ER 117
+12) LIT-ER 118
+</t>
+  </si>
+  <si>
+    <t>LIT-ER S1.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) LIT-ER 119
+2) LIT-ER 120
+3) LIT-ER 121
+4) LIT-ER 122
+5) LIT-ER 123
+6) LIT-ER 124
+7) LIT-ER 125
+8) LIT-ER 126
+9) LIT-ER 127
+10) LIT-ER 128
+11) LIT-ER 129
+12) LIT-ER 130
+</t>
+  </si>
+  <si>
+    <t>LIT-ER S1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) LIT-ER 131
+2) LIT-ER 132
+3) LIT-ER 133
+4) LIT-ER 134
+5) LIT-ER 135
+6) LIT-ER 136
+7) LIT-ER 137
+8) LIT-ER 138
+9) LIT-ER 139
+10) LIT-ER 140
+11) LIT-ER 141
+12) LIT-ER 142
+</t>
+  </si>
+  <si>
+    <t>LIT-ER S1.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) LIT-ER 143
+2) LIT-ER 144
+3) LIT-ER 145
+4) LIT-ER 146
+5) LIT-ER 147
+6) LIT-ER 148
+</t>
+  </si>
+  <si>
+    <t>LIT-ER S1.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) LIT-ER 149
+2) LIT-ER 150
+3) LIT-ER 151
+4) LIT-ER 152
+5) LIT-ER 153
+6) LIT-ER 154
+7) LIT-ER 155
+</t>
+  </si>
+  <si>
+    <t>LIT-ER S1.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) LIT-ER 156
+2) LIT-ER 157
+3) LIT-ER 158
+4) LIT-ER 159
+5) LIT-ER 160
+6) LIT-ER 161
+7) LIT-ER 162
+8) LIT-ER 163
+</t>
+  </si>
+  <si>
+    <t>LIT-ER S1.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) LIT-ER 164 
+2) LIT-ER 165
+3) LIT-ER 166
+4) LIT-ER 167
+5) LIT-ER 168
+6) LIT-ER 169
+7) LIT-ER 170
+8) LIT-ER 171
+9) LIT-ER 172
+10) LIT-ER 173
+11) LIT-ER 174
+12) LIT-ER 175
+13) LIT-ER 176
+14) LIT-ER 177
+</t>
+  </si>
+  <si>
+    <t>15) LIT-ER 178
+16) LIT-ER 179
+17) LIT-ER 180
+18) LIT-ER 181
+19) LIT-ER 182
+20) LIT-ER 183
+21) LIT-ER 184
+22) LIT-ER 185
+23) LIT-ER 186
+24) LIT-ER 187
+25) LIT-ER 188
+26) LIT-ER 189
+27) LIT-ER 190
+28) LIT-ER 191
+29) LIT-ER 192</t>
+  </si>
+  <si>
+    <t>LIT-ER S1.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) LIT-ER 193
+2) LIT-ER 194
+3) LIT-ER 195
+4) LIT-ER 196
+5) LIT-ER 197
+6) LIT-ER 198
+7) LIT-ER 199
+8) LIT-ER 200
+9) LIT-ER 201
+10) LIT-ER 202
+11) LIT-ER 203
+12) LIT-ER 204
+13) LIT-ER 205
+14) LIT-ER 206
+15) LIT-ER 207
+16) LIT-ER 208
+17) LIT-ER 209
+18) LIT-ER 210
+19) LIT-ER 211
+20) LIT-ER 212
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21) LIT-ER 213
+22) LIT-ER 214
+23) LIT-ER 215
+24) LIT-ER 216
+25) LIT-ER 217
+26) LIT-ER 218
+27) LIT-ER 219
+28) LIT-ER 220
+29) LIT-ER 221
+30) LIT-ER 222
+31) LIT-ER 223
+32) LIT-ER 224
+33) LIT-ER 225
+34) LIT-ER 226
+35) LIT-ER 227
+36) LIT-ER 228
+37) LIT-ER 229
+38) LIT-ER 230
+39) LIT-ER 231
+40) LIT-ER 232
+</t>
+  </si>
+  <si>
+    <t>1) Поиск по КС пассажира с литерой «П» для страны Латвия с одной ошибкой в ФИГ
+2) Поиск по КС пассажира с литерой «П» для страны Туркменистан с ошибками в ФИГ
+3) Поиск по КС пассажира с литерой «П» для страны Азербайджан с ошибками в ФИГ
+4) Поиск по КС пассажира с литерой «Д» для страны Таджикистан с ошибками в ФИГ
+5) Поиск по КС пассажира с литерой «Д» для страны Франция с ошибками в ФИГ
+6) Поиск по КС пассажира с литерой «Т» для страны Армения с ошибками в ФИГ
+7) Поиск по КС пассажира с литерой «Ф» для страны Люксембург с ошибками в ФИГ
+8) Поиск по КС пассажира с литерой «С» для страны Алжир с ошибками в ФИГ
+9) Поиск по КС пассажира с литерой «В» для страны Ангола с ошибками в ФИГ
+10) Поиск по КС пассажира с литерой «В» для страны ЮАР с ошибками в ФИГ
+11) Поиск по КС пассажира с литерой «С» для страны ОАЭ с ошибками в ФИГ
+12) Поиск по КС пассажира с литерой «Ф» для страны Индия с ошибками в ФИГ
+13) Поиск по КС пассажира с литерой «Т» для страны Индонезия с ошибками в ФИГ
+14) Поиск по КС пассажира с литерой «З» для страны Тайвань, провинция Китая с ошибками в ФИГ
+15) Поиск по КС пассажира с литерой «К» для страны Вьетнам с ошибками в ФИГ
+16) Поиск по КС пассажира с литерой «Т» для страны Узбекистан с ошибками в ФИГ
+17) Поиск по КС пассажира с литерой «В» для страны Украина с ошибками в ФИГ
+18) Поиск по КС пассажира с литерой «Р» для страны Израиль с ошибками в ФИГ
+19) Поиск по КС пассажира с литерой «Н» для страны Иран с ошибками в ФИГ
+20) Поиск по КС пассажира с литерой «Ф» для страны Афганистан с ошибками в ФИГ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21) Поиск по КС пассажира с литерой «С» для страны Турция с ошибками в ФИГ
+22) Поиск по КС пассажира с литерой «З» для страны Греция с ошибками в ФИГ
+23) Поиск по КС пассажира с литерой «З» для страны Румыния с ошибками в ФИГ
+24) Поиск по КС пассажира с литерой «С» для страны Албания с ошибками в ФИГ
+25) Поиск по КС пассажира с литерой «Ф» для страны Черногория с ошибками в ФИГ
+26) Поиск по КС пассажира с литерой «Р» для страны Бахрейн с ошибками в ФИГ
+27) Поиск по КС пассажира с литерой «Т» для страны Багамы с ошибками в ФИГ
+28) Поиск по КС пассажира с литерой «В» для страны Гибралтар с ошибками в ФИГ
+29) Поиск по КС пассажира с литерой «Н» для страны Испания с ошибками в ФИГ
+30) Поиск по КС пассажира с литерой «Р» для страны Монголия с ошибками в ФИГ
+31) Поиск по КС пассажира с литерой «П» для страны РФ с ошибками в ФИГ
+32) Поиск по КС пассажира с литерой «П» для страны РФ с двумя ошибками в ФИГ
+33) Поиск по КС пассажира с литерой «П» для страны РФ с ошибками в трех компонентах ФИГ
+34) Поиск по КС пассажира с литерой «Д» для страны РФ с ошибками в ФИГ
+35) Поиск по КС пассажира с литерой «Д» для страны РФ с двумя ошибками в ФИГ
+36) Поиск по КС пассажира с литерой «Т» для страны РФ с ошибками в ФИГ
+37) Поиск по КС пассажира с литерой «Ф» для страны РФ с ошибками в ФИГ
+38) Поиск по КС пассажира с литерой «С» для страны РФ с ошибками в ФИГ
+39) Поиск по КС пассажира с литерой «В» для страны РФ с ошибками в ФИГ
+40) Поиск по КС пассажира с литерой «П» для страны РФ с ошибками в ФИГ
+</t>
+  </si>
+  <si>
+    <t>Перестановка именных компонент местами</t>
+  </si>
+  <si>
+    <t>LIT-ER S1.18</t>
+  </si>
+  <si>
+    <t>1) LIT-ER 233
+2) LIT-ER 234
+3) LIT-ER 235
+4) LIT-ER 236
+5) LIT-ER 237
+6) LIT-ER 238
+7) LIT-ER 239
+8) LIT-ER 240
+9) LIT-ER 241
+10) LIT-ER 242
+11) LIT-ER 243
+12) LIT-ER 244
+13) LIT-ER 245
+14) LIT-ER 246
+15) LIT-ER 247</t>
+  </si>
+  <si>
+    <t>1) Поиск по КС пассажира с литерой «К» для страны Таджикистан с перестановкой компонентов
+2) Поиск по КС пассажира с литерой «З» для страны Индия с перестановкой компонентов 
+3) Поиск по КС пассажира с литерой «Т» для страны Китай с перестановкой компонентов
+4) Поиск по КС пассажира с литерой «Ф» для страны Египет с перестановкой компонентов
+5) Поиск по КС пассажира с литерой «В» для страны Италия с перестановкой компонентов
+6) Поиск по КС пассажира с литерой «Р» для страны Мексика с перестановкой компонентов
+7) Поиск по КС пассажира с литерой «Н» для страны Аргентина с перестановкой компонентов
+8) Поиск по КС пассажира с литерой «К» для страны РФ с перестановкой компонентов
+9) Поиск по КС пассажира с литерой «З» для страны РФ с перестановкой компонентов
+10) Поиск по КС пассажира с литерой «Т» для страны РФ с перестановкой компонентов 
+11) Поиск по КС пассажира с литерой «Ф» для страны РФ с перестановкой компонентов
+12) Поиск по КС пассажира с литерой «Ф» для страны РФ с перестановкой компонентов
+13) Поиск по КС пассажира с литерой «В» для страны РФ с перестановкой компонентов
+14) Поиск по КС пассажира с литерой «Р» для страны РФ с перестановкой компонентов
+15) Поиск по КС пассажира с литерой «Н» для страны РФ с перестановкой компонентов</t>
+  </si>
+  <si>
+    <t>Не совпадение с первой компонентой фамильно-именной группы</t>
+  </si>
+  <si>
+    <t>1) LIT-ER 248
+2) LIT-ER 249
+3) LIT-ER 250
+4) LIT-ER 251
+5) LIT-ER 252
+6) LIT-ER 253
+7) LIT-ER 254
+8) LIT-ER 255
+9) LIT-ER 256
+10) LIT-ER 257
+11) LIT-ER 258
+12) LIT-ER 259
+13) LIT-ER 260
+14) LIT-ER 261
+15) LIT-ER 262
+16) LIT-ER 263
+17) LIT-ER 264
+18) LIT-ER 265
+19) LIT-ER 266
+20) LIT-ER 267
+21) LIT-ER 268
+22) LIT-ER 269
+23) LIT-ER 270
+24) LIT-ER 271
+25) LIT-ER 272</t>
+  </si>
+  <si>
+    <t>LIT-ER S1.19</t>
+  </si>
+  <si>
+    <t>1) Поиск по КС пассажира с литерой «Р» для страны Грузия с заменой первой компоненты
+2) Поиск по КС пассажира с литерой «Т» для страны Чехия с заменой первой компоненты
+3) Поиск по КС пассажира с литерой «П» для страны Норвегия с заменой первой компоненты
+4) Поиск по КС пассажира с литерой «Д» для страны Малайзия с заменой первой компоненты
+5) Поиск по КС пассажира с литерой «В» для страны Непал с заменой первой компоненты
+6) Поиск по КС пассажира с литерой «З» для страны Узбекистан с заменой первой компоненты
+7) Поиск по КС пассажира с литерой «Н» для страны Кипр с заменой первой компоненты
+8) Поиск по КС пассажира с литерой «К» для страны Нигер с заменой первой компоненты
+9) Поиск по КС пассажира с литерой «Ф» для страны Марокко с заменой первой компоненты
+10) Поиск по КС пассажира с литерой «Р» для страны РФ с заменой первой компоненты
+11) Поиск по КС пассажира с литерой «Т» для страны РФ с заменой первой компоненты
+12) Поиск по КС пассажира с литерой «П» для страны РФ с заменой первой компоненты
+13) Поиск по КС пассажира с литерой «Д» для страны РФ с заменой первой компоненты
+14) Поиск по КС пассажира с литерой «В» для страны РФ с заменой первой компоненты
+15) Поиск по КС пассажира с литерой «З» для страны РФ с заменой первой компоненты
+16) Поиск по КС пассажира с литерой «Н» для страны РФ с заменой первой компоненты
+17) Поиск по КС пассажира с литерой «К» для страны РФ с заменой первой компоненты
+18) Поиск по КС пассажира с литерой «С» для страны РФ с заменой первой компоненты
+19) Поиск пассажира с литерой «К», с заменой первой компоненты для страны РФ, ФИГ с четырьмя компонентами
+20) Поиск пассажира с литерой «Д», с заменой первой компоненты для страны РФ, ФИГ с четырьмя компонентами
+21) Поиск пассажира с литерой «Т», с заменой первой компоненты для страны РФ, ФИГ с четырьмя компонентами
+22) Поиск пассажира с литерой «Р», с заменой первой компоненты для страны Азербайджан, ФИГ с четырьмя компонентами
+23) Поиск пассажира с литерой «В», с заменой первой компоненты для страны Узбекистан, ФИГ с четырьмя компонентами
+24) Поиск пассажира с литерой «С», с заменой первой компоненты для страны Коморы, ФИГ с четырьмя компонентами
+25) Поиск пассажира с литерой «Ф», с заменой первой компоненты для страны Буркина-Фасо, ФИГ с четырьмя компонентами</t>
+  </si>
+  <si>
+    <t>LIT-ER S1.20</t>
+  </si>
+  <si>
+    <t>Отсутствие одной компоненты фамильно-именной группы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) LIT-ER 273
+2) LIT-ER 274
+3) LIT-ER 275
+4) LIT-ER 276
+5) LIT-ER 277
+6) LIT-ER 278
+7) LIT-ER 279
+8) LIT-ER 280
+9) LIT-ER 281
+10) LIT-ER 282
+11) LIT-ER 283
+12) LIT-ER 284
+13) LIT-ER 285
+14) LIT-ER 286
+15) LIT-ER 287
+16) LIT-ER 288
+17) LIT-ER 289
+18) LIT-ER 290
+19) LIT-ER 291
+20) LIT-ER 292
+</t>
+  </si>
+  <si>
+    <t>1) Поиск пассажира с литерой «К», с одной компонентой ФИГ для страны Швеция
+2) Поиск пассажира с литерой «З», с одной компонентами ФИГ для страны Дания
+3) Поиск пассажира с литерой "Т", с одной компонентой ФИГ для страны Бурунди
+4) Поиск пассажира с индексом «Ф», с одной компонентой ФИГ для страны Конго
+5) Поиск пассажира с литерой «С», с двумя компонентами ФИГ для страны Франция
+6) Поиск пассажира с литерой «В», с двумя компонентами ФИГ для страны Туркменистан
+7) Поиск пассажира с литерой «Ф», с двумя компонентами ФИГ для страны Уганда
+8) Поиск пассажира с литерой «Т», с двумя компонентами ФИГ для страны Сент-Винсент и Гренадины
+9) Поиск пассажира с литерой «Р», с одной компонентой ФИГ для страны Соломоновы острова
+10) Поиск пассажира с литерой «Н», с одной компонентами ФИГ для страны Гамбия
+11) Поиск пассажира с литерой «К», с одной компонентой ФИГ для страны РФ
+12) Поиск пассажира с литерой «З», с одной компонентами ФИГ для страны РФ
+13) Поиск пассажира с литерой «Т», с одной компонентой ФИГ для страны РФ
+14) Поиск пассажира с литерой «Ф», с одной компонентой ФИГ для страны РФ
+15) Поиск пассажира с литерой «С» с двумя компонентами ФИГ для страны РФ
+16) Поиск пассажира с литерой «В», с двумя компонентами ФИГ для страны РФ
+17) Поиск пассажира с литерой «Ф», с двумя компонентами ФИГ для страны РФ
+18) Поиск пассажира с литерой «Т», с двумя компонентами ФИГ для страны РФ
+19) Поиск пассажира с литерой «Р», с одной компонентой ФИГ для страны РФ
+20) Поиск пассажира с литерой «Н», с одной компонентами ФИГ для страны РФ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Добавление повторяющегося символа в любую компоненту фамильно-именной группы </t>
+  </si>
+  <si>
+    <t>1) LIT-ER 293
+2) LIT-ER 294
+3) LIT-ER 295
+4) LIT-ER 296
+5) LIT-ER 297
+6) LIT-ER 298
+7) LIT-ER 299
+8) LIT-ER 300
+9) LIT-ER 301
+10) LIT-ER 302
+11) LIT-ER 303
+12) LIT-ER 304
+13) LIT-ER 305
+14) LIT-ER 306
+15) LIT-ER 307
+16) LIT-ER 308
+17) LIT-ER 309
+18) LIT-ER 310
+19) LIT-ER 311
+20) LIT-ER 312
+21) LIT-ER 313
+22) LIT-ER 314
+23) LIT-ER 315
+24) LIT-ER 316</t>
+  </si>
+  <si>
+    <t>LIT-ER S1.21</t>
+  </si>
+  <si>
+    <t>1) Поиск пассажира с литерой «К», с одним повторяющимся символом в ФИГ для страны РФ
+2) Поиск пассажира с литерой «Р», с двумя повторяющимися символами в ФИГ для страны РФ
+3) Поиск пассажира с литерой «З», с тремя повторяющимися символами в ФИГ для страны РФ
+4) Поиск пассажира с литерой «Н», с тремя повторяющимися символами в ФИГ для страны Камерун
+5) Поиск пассажира с литерой «Т», с двумя повторяющимися символами в ФИГ для страны Габон
+6) Поиск пассажира с литерой «Ф», с одним повторяющимся символом в ФИГ для страны Йемен
+7) Поиск пассажира с литерой «С», с одним повторяющимся символом в ФИГ для страны Сент-Винсент и Гренадины
+8) Поиск пассажира с литерой «В», с двумя повторяющимися символами в ФИГ для страны Бутан
+9) Поиск пассажира с литерой «С», с тремя повторяющимися символами в ФИГ для страны РФ
+10) Поиск пассажира с литерой «В», с тремя повторяющимися символами в ФИГ для страны РФ
+11) Поиск пассажира с литерой «Ф», с одним повторяющимся символом в ФИГ для страны РФ
+12) Поиск пассажира с литерой «Т», с тремя повторяющимися символами в ФИГ для страны РФ
+13) Поиск пассажира с литерой «Н», с тремя повторяющимися символами в ФИГ для страны РФ
+14) Поиск пассажира с литерой "З", с одним повторяющимся символом в ФИГ для страны Гонконг
+15) Поиск пассажира с литерой "Р", с тремя повторяющимися символами в ФИГ для страны Мадагаскар
+16) Поиск пассажира с литерой "К", с тремя повторяющимися символами в ФИГ для страны Того
+17) Поиск пассажира с литерой "К", с двумя повторяющимися символами в ФИГ для страны Индия
+18) Поиск пассажира с литерой "Р", с одним повторяющимся символом в ФИГ для страны Уругвай
+19) Поиск пассажира с литерой "З", с двумя повторяющимися символами в ФИГ для страны Уоллис и Футуна
+20) Поиск пассажира с литерой "Н", с двумя повторяющимися символами в ФИГ для страны Святая Елена
+21) Поиск пассажира с литерой "Т", с одним повторяющимся символом в ФИГ для страны Самоа
+22) Поиск пассажира с литерой "Ф", с двумя повторяющимися символами в ФИГ для страны Виргинские острова (США)
+23) Поиск пассажира с литерой "С", с двумя повторяющимися символами в ФИГ для страны Новая Каледония
+24) Поиск пассажира с литерой "В", с одним повторяющимся символом в ФИГ для страны Черногория</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +955,12 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val=" Times New Romens"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -91,7 +975,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -114,24 +998,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -448,154 +1440,540 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DDC8C5-BDD2-4180-BFE1-6F2E2D051BB8}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="68.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="60" customWidth="1"/>
+    <col min="7" max="7" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="21.75" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="34.5" customHeight="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="334.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="B2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="159.75" customHeight="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="253.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="B3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="B4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="207.75" customHeight="1">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="B5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="261" customHeight="1">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="284.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="B6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="155.25" customHeight="1">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="267.75" customHeight="1">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="B8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="346.5" customHeight="1">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="B9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="80.25" customHeight="1">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="B10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="164.25" customHeight="1">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="192" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="B11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="200.25" customHeight="1">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="198" customHeight="1">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="199.5" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="119.25" customHeight="1">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="119.25" customHeight="1">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="132" customHeight="1">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="406.5" customHeight="1">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="409.5" customHeight="1">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="235.5" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="248.25" customHeight="1">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" spans="1:7" ht="409.5" customHeight="1">
+      <c r="A22" s="20">
+        <v>20</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7" ht="64.5" customHeight="1">
+      <c r="A23" s="20"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="321.75" customHeight="1">
+      <c r="A24" s="2">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" ht="404.25" customHeight="1">
+      <c r="A25" s="2">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="D22:E23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Тестовые сценарии Литера-7.xlsx
+++ b/Тестовые сценарии Литера-7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p.larionov\Desktop\Документы\Тестовая документация\Литера 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8726AF27-7EA4-42AE-8BF3-02239748B4EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F33842D-82EE-4236-9937-E2449B60CD79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="5130" windowHeight="5670" xr2:uid="{13E3AFFA-99BC-4A72-A9C1-8EB9A3181F0F}"/>
   </bookViews>
@@ -214,21 +214,6 @@
   </si>
   <si>
     <t>Поле ввода "Максимальная длина компоненты, в которой допустима 1 ошибка"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Заполнение цифрами Поле «Кириллица» у пункта с одной ошибкой
-2) Заполнение буквенными символами Поле «Кириллица» у пункта с одной ошибкой
-3) Заполнение спецсимволами Поле «Кириллица» у пункта с одной ошибкой
-4) Отрицательное значение в поле «Кириллица» у пункта с одной ошибкой
-5) Значение, превышающее предел заполняемости в поле «Кириллица» у пункта с одной ошибкой
-6) Пустое поле «Кириллица» у пункта с одной ошибкой
-7) Заполнение цифрами Поле «Латиница» у пункта с одной ошибкой
-8) Заполнение буквенными символами Поле «Латиница» у пункта с одной ошибкой
-9) Заполнение спецсимволами поле «Латиница» у пункта с одной ошибкой
-10) Отрицательное значение в поле «Латиница» у пункта с одной ошибкой
-11) Значение, превышающее предел заполняемости в поле «Латиница» у пункта с одной ошибкой
-12) Пустое поле «Латиница» у пункта с одной ошибкой
-</t>
   </si>
   <si>
     <t>Поля ввода "Минимальное количество совпавших компонент (половина с округлением в большую сторону, если &gt;= 5"</t>
@@ -918,6 +903,21 @@
 22) Поиск пассажира с литерой "Ф", с двумя повторяющимися символами в ФИГ для страны Виргинские острова (США)
 23) Поиск пассажира с литерой "С", с двумя повторяющимися символами в ФИГ для страны Новая Каледония
 24) Поиск пассажира с литерой "В", с одним повторяющимся символом в ФИГ для страны Черногория</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Заполнение цифрами Поле «Кириллица» у пункта с одной ошибкой
+2) Заполнение буквенными символами Поле «Кириллица» у пункта с одной ошибкой
+3) Заполнение спецсимволами Поле «Кириллица» у пункта с одной ошибкой
+4) Отрицательное значение в поле «Кириллица» у пункта с одной ошибкой
+5) Значение, превышающее предел заполняемости в поле «Кириллица» у пункта с одной ошибкой
+6) Пустое поле «Кириллица» у пункта с одной ошибкой
+7) Заполнение цифрами Поле «Латиница» у пункта с одной ошибкой
+8) Заполнение буквенными символами Поле «Латиница» у пункта с одной ошибкой
+9) Заполнение спецсимволами поля «Латиница» у пункта с одной ошибкой
+10) Отрицательное значение в поле «Латиница» у пункта с одной ошибкой
+11) Значение, превышающее предел заполняемости в поле «Латиница» у пункта с одной ошибкой
+12) Пустое поле «Латиница» у пункта с одной ошибкой
+</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1060,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1080,6 +1080,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1088,42 +1127,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1442,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DDC8C5-BDD2-4180-BFE1-6F2E2D051BB8}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1457,484 +1460,492 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" ht="34.5" customHeight="1">
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7" ht="21.75" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="159.75" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="31.5" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="207.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15" t="s">
+      <c r="D5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="261" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15" t="s">
+      <c r="D6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="155.25" customHeight="1">
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" ht="165" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15" t="s">
+      <c r="D7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" ht="267.75" customHeight="1">
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" ht="277.5" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15" t="s">
+      <c r="D8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="346.5" customHeight="1">
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" ht="357.75" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15" t="s">
+      <c r="D9" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="80.25" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
+      <c r="D10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" ht="164.25" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15" t="s">
+      <c r="D11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7" ht="200.25" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15" t="s">
+      <c r="D12" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7" ht="198" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="15"/>
+      <c r="D13" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" ht="199.5" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" ht="119.25" customHeight="1">
       <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="E15" s="14"/>
+      <c r="F15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" ht="119.25" customHeight="1">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="15"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" ht="132" customHeight="1">
       <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="15"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7" ht="406.5" customHeight="1">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="E18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="G18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="409.5" customHeight="1">
+      <c r="A19" s="17">
+        <v>18</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="C19" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="409.5" customHeight="1">
-      <c r="A19" s="10">
-        <v>18</v>
-      </c>
-      <c r="B19" s="16" t="s">
+      <c r="D19" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="20" spans="1:7" ht="235.5" customHeight="1">
-      <c r="A20" s="10"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="248.25" customHeight="1">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="E21" s="18"/>
+      <c r="F21" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="18" t="s">
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" ht="409.5" customHeight="1">
+      <c r="A22" s="19">
+        <v>20</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" spans="1:7" ht="409.5" customHeight="1">
-      <c r="A22" s="20">
-        <v>20</v>
-      </c>
-      <c r="B22" s="16" t="s">
+      <c r="D22" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="15"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7" ht="64.5" customHeight="1">
-      <c r="A23" s="20"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7" ht="321.75" customHeight="1">
       <c r="A24" s="2">
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="11"/>
+      <c r="F24" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="21"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" ht="404.25" customHeight="1">
       <c r="A25" s="2">
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="21"/>
+      <c r="G25" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="D22:E23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="D19:D20"/>
@@ -1947,32 +1958,24 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="D22:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
